--- a/data/trans_orig/P24F-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24F-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>21024</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12740</v>
+        <v>12818</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31094</v>
+        <v>31491</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05612445356618313</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03400893718137522</v>
+        <v>0.03421797619507288</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08300555826179698</v>
+        <v>0.08406652380920435</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -764,19 +764,19 @@
         <v>4150</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10343</v>
+        <v>9839</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02350729560824524</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005917065195178474</v>
+        <v>0.005925363143700326</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05858784005877785</v>
+        <v>0.05573482236775149</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -785,19 +785,19 @@
         <v>25174</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16156</v>
+        <v>16706</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36342</v>
+        <v>37698</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04567653842307207</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02931460642812195</v>
+        <v>0.03031190657085672</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06593884114177306</v>
+        <v>0.06840010118642979</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>109835</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>92850</v>
+        <v>91963</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>129501</v>
+        <v>127948</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.293205659698498</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2478657440935763</v>
+        <v>0.2454965742033994</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3457061823536542</v>
+        <v>0.341560276841683</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>64</v>
@@ -835,19 +835,19 @@
         <v>67037</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>54310</v>
+        <v>54696</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>80845</v>
+        <v>81657</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3797228637355333</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3076353003570011</v>
+        <v>0.3098186624175668</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4579392727939212</v>
+        <v>0.4625364281875558</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>173</v>
@@ -856,19 +856,19 @@
         <v>176871</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>154812</v>
+        <v>155024</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>198164</v>
+        <v>202554</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3209188162942948</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2808939483079235</v>
+        <v>0.2812794745758793</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3595525598118929</v>
+        <v>0.3675185363949782</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>153863</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>134943</v>
+        <v>134707</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>173214</v>
+        <v>174088</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4107396647001535</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3602335303291012</v>
+        <v>0.359603951102823</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4623991437261296</v>
+        <v>0.4647308797508746</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>75</v>
@@ -906,19 +906,19 @@
         <v>75822</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>62597</v>
+        <v>62076</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>89694</v>
+        <v>88523</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4294846886566357</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3545759364995978</v>
+        <v>0.3516230597718439</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5080650858266988</v>
+        <v>0.5014286915057455</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>224</v>
@@ -927,19 +927,19 @@
         <v>229684</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>208404</v>
+        <v>205472</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>253361</v>
+        <v>251988</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4167440633637485</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.378132897959735</v>
+        <v>0.372812576739973</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4597033345727917</v>
+        <v>0.4572132174681184</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>89878</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>73670</v>
+        <v>74287</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>107137</v>
+        <v>108162</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2399302220351653</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1966634869065842</v>
+        <v>0.198312037302352</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2860041157223913</v>
+        <v>0.2887403769848564</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -977,19 +977,19 @@
         <v>29533</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20634</v>
+        <v>20751</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40125</v>
+        <v>41005</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1672851519995857</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1168811201636987</v>
+        <v>0.1175433993635497</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2272864474039848</v>
+        <v>0.2322685128339907</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>117</v>
@@ -998,19 +998,19 @@
         <v>119410</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>100178</v>
+        <v>101951</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>139191</v>
+        <v>140669</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2166605819188846</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.181765438806346</v>
+        <v>0.1849813589527581</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2525506857609909</v>
+        <v>0.255232384898979</v>
       </c>
     </row>
     <row r="8">
@@ -1102,19 +1102,19 @@
         <v>32379</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>22566</v>
+        <v>22504</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>46612</v>
+        <v>46432</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03959300175817044</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02759312299570412</v>
+        <v>0.02751736648883221</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05699670459071721</v>
+        <v>0.05677623104510807</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>31</v>
@@ -1123,19 +1123,19 @@
         <v>31149</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22036</v>
+        <v>21728</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>42817</v>
+        <v>42868</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05683541045515327</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04020688090630711</v>
+        <v>0.0396463279426632</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07812590602840309</v>
+        <v>0.07821878134420379</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>62</v>
@@ -1144,19 +1144,19 @@
         <v>63528</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>47136</v>
+        <v>49675</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>78827</v>
+        <v>81619</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04651156132956395</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03450972777586865</v>
+        <v>0.03636922720864376</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05771197067132539</v>
+        <v>0.05975612507888423</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>338723</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>311470</v>
+        <v>309684</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>369655</v>
+        <v>366439</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4141853898027554</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3808601085557709</v>
+        <v>0.3786765273203571</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4520083190606693</v>
+        <v>0.4480751389422481</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>192</v>
@@ -1194,19 +1194,19 @@
         <v>193229</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>171953</v>
+        <v>169598</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>215758</v>
+        <v>214965</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3525727398615428</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3137521984521354</v>
+        <v>0.3094543482840008</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3936800298409739</v>
+        <v>0.3922329461799569</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>525</v>
@@ -1215,19 +1215,19 @@
         <v>531953</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>496839</v>
+        <v>493424</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>568346</v>
+        <v>566320</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3894631600690242</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3637550592490861</v>
+        <v>0.3612543889005229</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4161082415998775</v>
+        <v>0.4146247696121002</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>299394</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>272035</v>
+        <v>271411</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>325624</v>
+        <v>328231</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3660941136671573</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3326397509783149</v>
+        <v>0.331876742818518</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3981678180962964</v>
+        <v>0.4013558531484931</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>225</v>
@@ -1265,19 +1265,19 @@
         <v>229114</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>206385</v>
+        <v>207679</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>252084</v>
+        <v>252804</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4180496453697402</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3765762992469386</v>
+        <v>0.3789380558913542</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4599609839173193</v>
+        <v>0.461273980064596</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>519</v>
@@ -1286,19 +1286,19 @@
         <v>528509</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>490758</v>
+        <v>496030</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>565302</v>
+        <v>568731</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3869414005784485</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3593024546850959</v>
+        <v>0.3631622921603993</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4138793254108967</v>
+        <v>0.4163901532933405</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>147309</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>124941</v>
+        <v>126216</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>169537</v>
+        <v>173817</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1801274947719168</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1527763099418912</v>
+        <v>0.1543343780302859</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2073070795966976</v>
+        <v>0.2125411107734252</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>92</v>
@@ -1336,19 +1336,19 @@
         <v>94563</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>78360</v>
+        <v>77080</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>113443</v>
+        <v>112470</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1725422043135638</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.142978454160172</v>
+        <v>0.1406435634166734</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2069916692657583</v>
+        <v>0.2052162756957422</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>232</v>
@@ -1357,19 +1357,19 @@
         <v>241872</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>212521</v>
+        <v>212868</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>269773</v>
+        <v>270913</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1770838780229634</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1555950951238441</v>
+        <v>0.1558487250127554</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1975110812966745</v>
+        <v>0.1983459658488484</v>
       </c>
     </row>
     <row r="13">
@@ -1461,19 +1461,19 @@
         <v>2652</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7829</v>
+        <v>7197</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01388552197339783</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004425845494054198</v>
+        <v>0.004386640724246436</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04098523328254204</v>
+        <v>0.03767757830809116</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1482,19 +1482,19 @@
         <v>11895</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5973</v>
+        <v>6779</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19278</v>
+        <v>19989</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0857431267325133</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04305192385054183</v>
+        <v>0.04886066912784871</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1389566270177561</v>
+        <v>0.1440799015200023</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -1503,19 +1503,19 @@
         <v>14548</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8468</v>
+        <v>8757</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>23538</v>
+        <v>24529</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04411690229611036</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02568060843185686</v>
+        <v>0.026554562817355</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07137807387561368</v>
+        <v>0.07438419634162181</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>68020</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>56506</v>
+        <v>55126</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>81697</v>
+        <v>81146</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3560800122984911</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2958057884285182</v>
+        <v>0.2885825796007511</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4276782887662137</v>
+        <v>0.4247935588987685</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>39</v>
@@ -1553,19 +1553,19 @@
         <v>42688</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>31650</v>
+        <v>32757</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>54369</v>
+        <v>54965</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3076983464469349</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2281323153025659</v>
+        <v>0.2361133586085601</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3918969830451001</v>
+        <v>0.3961867841627655</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>107</v>
@@ -1574,19 +1574,19 @@
         <v>110708</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>95103</v>
+        <v>93794</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>129147</v>
+        <v>128106</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3357252489313021</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2884010708192694</v>
+        <v>0.2844333558026854</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3916416333341586</v>
+        <v>0.3884827258465699</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>86622</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72208</v>
+        <v>72780</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>100227</v>
+        <v>101618</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4534602764179618</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3780006247143433</v>
+        <v>0.3809961425006102</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5246796301299956</v>
+        <v>0.5319595162402299</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>53</v>
@@ -1624,19 +1624,19 @@
         <v>54296</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>43642</v>
+        <v>42609</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66528</v>
+        <v>66930</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3913648516252867</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3145731149897857</v>
+        <v>0.307128654651578</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4795348573046665</v>
+        <v>0.4824328950713738</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>134</v>
@@ -1645,19 +1645,19 @@
         <v>140918</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>121372</v>
+        <v>123965</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>157263</v>
+        <v>158591</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4273359655743052</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3680616540163846</v>
+        <v>0.3759262719599673</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4769022500512443</v>
+        <v>0.4809303175870546</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>33730</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23068</v>
+        <v>24098</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44945</v>
+        <v>47099</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1765741893101493</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.120759987084822</v>
+        <v>0.1261509217295772</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2352809244376646</v>
+        <v>0.2465611532625653</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -1695,19 +1695,19 @@
         <v>29855</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21040</v>
+        <v>21182</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39792</v>
+        <v>39834</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2151936751952651</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1516536301200065</v>
+        <v>0.1526805280927303</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2868222608363778</v>
+        <v>0.2871240811835271</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>60</v>
@@ -1716,19 +1716,19 @@
         <v>63585</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>51128</v>
+        <v>49669</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>78320</v>
+        <v>79194</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1928218831982824</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.155047139307002</v>
+        <v>0.1506215834291352</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2375081340234062</v>
+        <v>0.2401573713334557</v>
       </c>
     </row>
     <row r="18">
@@ -1820,19 +1820,19 @@
         <v>56056</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>42806</v>
+        <v>42094</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71677</v>
+        <v>72603</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04051960713749275</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03094203477931582</v>
+        <v>0.03042711351279731</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05181115885490393</v>
+        <v>0.05248029570981885</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>47</v>
@@ -1841,19 +1841,19 @@
         <v>47194</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35521</v>
+        <v>35397</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62105</v>
+        <v>61105</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05466554507205043</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04114450064240743</v>
+        <v>0.04100007891630292</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07193685769190881</v>
+        <v>0.07077806616992886</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>101</v>
@@ -1862,19 +1862,19 @@
         <v>103250</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>85043</v>
+        <v>85651</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>125346</v>
+        <v>125091</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04595526070626757</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03785155746756642</v>
+        <v>0.0381219609502538</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05578981086327366</v>
+        <v>0.05567619078493789</v>
       </c>
     </row>
     <row r="20">
@@ -1891,19 +1891,19 @@
         <v>516578</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>483631</v>
+        <v>481124</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>555762</v>
+        <v>553754</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3734037997222054</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3495879868338956</v>
+        <v>0.3477760941765265</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4017272464653867</v>
+        <v>0.4002759809044142</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>295</v>
@@ -1912,19 +1912,19 @@
         <v>302954</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>276254</v>
+        <v>274507</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>330533</v>
+        <v>332210</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3509134986415854</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3199861169043852</v>
+        <v>0.3179634430225631</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3828580724721246</v>
+        <v>0.3848004908363523</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>805</v>
@@ -1933,19 +1933,19 @@
         <v>819533</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>770787</v>
+        <v>772365</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>862663</v>
+        <v>863640</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3647617792427401</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3430657879149576</v>
+        <v>0.3437680263186272</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3839584099116888</v>
+        <v>0.3843931342814563</v>
       </c>
     </row>
     <row r="21">
@@ -1962,19 +1962,19 @@
         <v>539879</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>504871</v>
+        <v>505576</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>574223</v>
+        <v>576835</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3902466234969971</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3649408964771778</v>
+        <v>0.3654510389525673</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4150719851472914</v>
+        <v>0.4169598496098112</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>353</v>
@@ -1983,19 +1983,19 @@
         <v>359231</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>331356</v>
+        <v>329812</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>386766</v>
+        <v>388500</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4160998444224285</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3838109551701237</v>
+        <v>0.3820233667947717</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4479938117412589</v>
+        <v>0.4500017644888622</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>877</v>
@@ -2004,19 +2004,19 @@
         <v>899111</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>857610</v>
+        <v>848936</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>949308</v>
+        <v>944461</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4001808642124424</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3817096772335616</v>
+        <v>0.3778487798948141</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4225229424056313</v>
+        <v>0.420365389836263</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>270917</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>239479</v>
+        <v>242404</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>299182</v>
+        <v>303443</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1958299696433048</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1731047687364199</v>
+        <v>0.1752192171451468</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2162605524372919</v>
+        <v>0.2193408799635775</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>150</v>
@@ -2054,19 +2054,19 @@
         <v>153950</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>132606</v>
+        <v>133022</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>176189</v>
+        <v>178889</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1783211118639356</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1535982154552338</v>
+        <v>0.1540804137721732</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2040802263719613</v>
+        <v>0.2072077160442669</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>409</v>
@@ -2075,19 +2075,19 @@
         <v>424867</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>391045</v>
+        <v>392284</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>463907</v>
+        <v>468606</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1891020958385499</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1740482272193837</v>
+        <v>0.1745996439926921</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2064780530220858</v>
+        <v>0.2085694020742133</v>
       </c>
     </row>
     <row r="23">
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6615</v>
+        <v>7310</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006659122079750931</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01988190978057912</v>
+        <v>0.02197104644096858</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6319</v>
+        <v>7120</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0102490587746516</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03175611402427825</v>
+        <v>0.03577865630826645</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -2460,19 +2460,19 @@
         <v>4255</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1168</v>
+        <v>1179</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10475</v>
+        <v>11383</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008002658980315179</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002197188951106172</v>
+        <v>0.002216653476833596</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01970109989132262</v>
+        <v>0.02140862386310779</v>
       </c>
     </row>
     <row r="5">
@@ -2489,19 +2489,19 @@
         <v>48948</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37656</v>
+        <v>36608</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62240</v>
+        <v>65399</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1471172673342311</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1131794228607342</v>
+        <v>0.1100281930584147</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1870696709157206</v>
+        <v>0.1965643439742376</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -2510,19 +2510,19 @@
         <v>20818</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13191</v>
+        <v>12660</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30243</v>
+        <v>32444</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1046161845413983</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06628854346406017</v>
+        <v>0.06362052167661898</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1519810882620592</v>
+        <v>0.1630453418548391</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>66</v>
@@ -2531,19 +2531,19 @@
         <v>69765</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>55848</v>
+        <v>53112</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>87421</v>
+        <v>85903</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1312112004870866</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1050364653354625</v>
+        <v>0.09989152026214412</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1644178369145575</v>
+        <v>0.1615622447226597</v>
       </c>
     </row>
     <row r="6">
@@ -2560,19 +2560,19 @@
         <v>207515</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>188733</v>
+        <v>188480</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>225327</v>
+        <v>225490</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6237066154989822</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5672553189690966</v>
+        <v>0.5664961107971046</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6772431096564778</v>
+        <v>0.6777346897824011</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>129</v>
@@ -2581,19 +2581,19 @@
         <v>140016</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>126750</v>
+        <v>125398</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>153703</v>
+        <v>152761</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7036312088818605</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6369687690444175</v>
+        <v>0.6301719096835904</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7724138851180359</v>
+        <v>0.7676822433316239</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>328</v>
@@ -2602,19 +2602,19 @@
         <v>347530</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>324179</v>
+        <v>322180</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>367832</v>
+        <v>367971</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6536184634223788</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6097018138354008</v>
+        <v>0.6059425631026502</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6918029069257707</v>
+        <v>0.6920639539908057</v>
       </c>
     </row>
     <row r="7">
@@ -2631,19 +2631,19 @@
         <v>74034</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59761</v>
+        <v>59448</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>90076</v>
+        <v>91535</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2225169950870357</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1796172041987207</v>
+        <v>0.1786779751677768</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2707315231388998</v>
+        <v>0.2751178655690386</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -2652,19 +2652,19 @@
         <v>36117</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25033</v>
+        <v>25849</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47817</v>
+        <v>49388</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1815035478020897</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.125798460218786</v>
+        <v>0.1298997957421728</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2402971796862664</v>
+        <v>0.2481918960039319</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>104</v>
@@ -2673,19 +2673,19 @@
         <v>110151</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>92598</v>
+        <v>93014</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>129338</v>
+        <v>131918</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2071676771102194</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1741533796463398</v>
+        <v>0.1749364344056571</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2432535544865594</v>
+        <v>0.2481055970577508</v>
       </c>
     </row>
     <row r="8">
@@ -2777,19 +2777,19 @@
         <v>13616</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7740</v>
+        <v>7834</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22863</v>
+        <v>21607</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01599900075117051</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009094687950166531</v>
+        <v>0.009205372503458906</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02686476786816401</v>
+        <v>0.02538991289582735</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -2798,19 +2798,19 @@
         <v>8741</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4200</v>
+        <v>4207</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17163</v>
+        <v>16498</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01377338614963312</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006618067250310129</v>
+        <v>0.006629148027904348</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02704185579661871</v>
+        <v>0.02599467987116024</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>22</v>
@@ -2819,19 +2819,19 @@
         <v>22357</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>13687</v>
+        <v>14836</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>33116</v>
+        <v>33044</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01504825152318151</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.009212388807407471</v>
+        <v>0.009986234437321356</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02229005752420053</v>
+        <v>0.02224146875224249</v>
       </c>
     </row>
     <row r="10">
@@ -2848,19 +2848,19 @@
         <v>138483</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>118262</v>
+        <v>119118</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>162111</v>
+        <v>162100</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1627253039639006</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1389638639218644</v>
+        <v>0.1399700064242113</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1904887643670666</v>
+        <v>0.1904764503875397</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>90</v>
@@ -2869,19 +2869,19 @@
         <v>98147</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79132</v>
+        <v>80824</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>117763</v>
+        <v>120675</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1546433149487598</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1246824606219811</v>
+        <v>0.1273497469361727</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1855510741844748</v>
+        <v>0.1901389022423092</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>221</v>
@@ -2890,19 +2890,19 @@
         <v>236630</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>209202</v>
+        <v>210339</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>266228</v>
+        <v>270042</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1592727992888087</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1408114164458662</v>
+        <v>0.141576561420889</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1791943765567839</v>
+        <v>0.1817619597336681</v>
       </c>
     </row>
     <row r="11">
@@ -2919,19 +2919,19 @@
         <v>534857</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>508270</v>
+        <v>507082</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>565249</v>
+        <v>563608</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6284854738825095</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5972436082083958</v>
+        <v>0.5958479864531528</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6641967368428745</v>
+        <v>0.6622686452001796</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>355</v>
@@ -2940,19 +2940,19 @@
         <v>386061</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>361814</v>
+        <v>359461</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>411192</v>
+        <v>409646</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6082903941080838</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5700861455003189</v>
+        <v>0.5663792184665647</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6478883620304967</v>
+        <v>0.6454520242967292</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>851</v>
@@ -2961,19 +2961,19 @@
         <v>920919</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>884981</v>
+        <v>882718</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>960138</v>
+        <v>962654</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6198584382351658</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5956689169547658</v>
+        <v>0.5941463394192603</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6462566691852314</v>
+        <v>0.6479501337647189</v>
       </c>
     </row>
     <row r="12">
@@ -2990,19 +2990,19 @@
         <v>164069</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>142588</v>
+        <v>141941</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>188102</v>
+        <v>187863</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1927902214024194</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1675486542233234</v>
+        <v>0.1667877021968315</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2210294611755669</v>
+        <v>0.2207491495627446</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>130</v>
@@ -3011,19 +3011,19 @@
         <v>141716</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>120496</v>
+        <v>122000</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>162099</v>
+        <v>165578</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2232929047935233</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1898576648714478</v>
+        <v>0.1922277458673639</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2554080354466046</v>
+        <v>0.2608900962594364</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>288</v>
@@ -3032,19 +3032,19 @@
         <v>305786</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>273673</v>
+        <v>270560</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>337919</v>
+        <v>337349</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2058205109528439</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1842058962494466</v>
+        <v>0.1821103517719964</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2274489170259433</v>
+        <v>0.2270655108269672</v>
       </c>
     </row>
     <row r="13">
@@ -3136,19 +3136,19 @@
         <v>6047</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2653</v>
+        <v>2261</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12217</v>
+        <v>11967</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03745931848531853</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01643156166781994</v>
+        <v>0.01400598861152952</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07568008141937431</v>
+        <v>0.07412696803778215</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -3157,19 +3157,19 @@
         <v>3088</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>953</v>
+        <v>970</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8331</v>
+        <v>8312</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02229083123290105</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006879563145938295</v>
+        <v>0.006999536981108101</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06014594511576177</v>
+        <v>0.06000737090645198</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -3178,19 +3178,19 @@
         <v>9135</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4787</v>
+        <v>4670</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17023</v>
+        <v>17530</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03045455604596453</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0159594131471541</v>
+        <v>0.01556897385151187</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05675364394643989</v>
+        <v>0.05844390237967104</v>
       </c>
     </row>
     <row r="15">
@@ -3207,19 +3207,19 @@
         <v>23739</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15267</v>
+        <v>15324</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>33970</v>
+        <v>34394</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1470513892433047</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0945713322632203</v>
+        <v>0.0949255496265614</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2104240724559516</v>
+        <v>0.2130486420478584</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>22</v>
@@ -3228,19 +3228,19 @@
         <v>25070</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>16757</v>
+        <v>15915</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>36504</v>
+        <v>36089</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1809862210582047</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1209709619955713</v>
+        <v>0.1148918193366397</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2635294435002922</v>
+        <v>0.2605341230694042</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>44</v>
@@ -3249,19 +3249,19 @@
         <v>48809</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>36824</v>
+        <v>36250</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>64647</v>
+        <v>62423</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1627223939603323</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1227641768979024</v>
+        <v>0.1208513635472583</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2155226567663741</v>
+        <v>0.2081097466761034</v>
       </c>
     </row>
     <row r="16">
@@ -3278,19 +3278,19 @@
         <v>86404</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72454</v>
+        <v>72289</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>100675</v>
+        <v>98831</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.535222137237376</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4488078983201743</v>
+        <v>0.4477861449506237</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6236212516116664</v>
+        <v>0.6121963820592962</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>80</v>
@@ -3299,19 +3299,19 @@
         <v>86692</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>73799</v>
+        <v>74156</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>99538</v>
+        <v>98910</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6258544658146912</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5327773744130848</v>
+        <v>0.5353523978120482</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7185929272338444</v>
+        <v>0.7140578635259718</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>156</v>
@@ -3320,19 +3320,19 @@
         <v>173096</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>155715</v>
+        <v>155826</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>193372</v>
+        <v>190669</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5770758778540209</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5191298139799897</v>
+        <v>0.519499859134533</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6446707480436215</v>
+        <v>0.635661328579139</v>
       </c>
     </row>
     <row r="17">
@@ -3349,19 +3349,19 @@
         <v>45245</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32942</v>
+        <v>34154</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>57790</v>
+        <v>57237</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2802671550340008</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2040535226377714</v>
+        <v>0.2115646777338746</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3579715968415406</v>
+        <v>0.3545482568797088</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -3370,19 +3370,19 @@
         <v>23668</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15286</v>
+        <v>14965</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34494</v>
+        <v>35544</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.170868481894203</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1103542082992565</v>
+        <v>0.1080356436323511</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2490221744480085</v>
+        <v>0.2565991603131932</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>63</v>
@@ -3391,19 +3391,19 @@
         <v>68914</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>53899</v>
+        <v>53088</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>85978</v>
+        <v>85030</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2297471721396822</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1796912472084846</v>
+        <v>0.1769863129454577</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2866375625186293</v>
+        <v>0.2834776799423339</v>
       </c>
     </row>
     <row r="18">
@@ -3495,19 +3495,19 @@
         <v>21878</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14077</v>
+        <v>14777</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32310</v>
+        <v>32461</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01626437910916397</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.010464984036352</v>
+        <v>0.01098529584891576</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02401890697711031</v>
+        <v>0.02413120877397834</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -3516,19 +3516,19 @@
         <v>13869</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7789</v>
+        <v>7606</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23602</v>
+        <v>22516</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0142655952155444</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008011542904456657</v>
+        <v>0.00782388466083817</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0242776494344847</v>
+        <v>0.02316013487593115</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -3537,19 +3537,19 @@
         <v>35747</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26216</v>
+        <v>25459</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50063</v>
+        <v>49250</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01542584985075388</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01131293361997664</v>
+        <v>0.01098641550254621</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02160343582690872</v>
+        <v>0.02125270814935015</v>
       </c>
     </row>
     <row r="20">
@@ -3566,19 +3566,19 @@
         <v>211171</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>187871</v>
+        <v>180886</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>240175</v>
+        <v>238398</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1569838092038779</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1396632554190788</v>
+        <v>0.1344703784586044</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1785459669617187</v>
+        <v>0.1772244702816675</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>132</v>
@@ -3587,19 +3587,19 @@
         <v>144034</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>122479</v>
+        <v>122877</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>168275</v>
+        <v>169130</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1481568899507146</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1259851987284359</v>
+        <v>0.1263946734033532</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1730911329002981</v>
+        <v>0.17397143925403</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>331</v>
@@ -3608,19 +3608,19 @@
         <v>355205</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>320869</v>
+        <v>323777</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>394052</v>
+        <v>392942</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1532807425146636</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1384639679352311</v>
+        <v>0.1397188205204813</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1700445467572147</v>
+        <v>0.1695656445934116</v>
       </c>
     </row>
     <row r="21">
@@ -3637,19 +3637,19 @@
         <v>828776</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>790646</v>
+        <v>789471</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>865579</v>
+        <v>866136</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6161108386863334</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5877650805914872</v>
+        <v>0.5868914824052307</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6434701610952169</v>
+        <v>0.6438837528839143</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>564</v>
@@ -3658,19 +3658,19 @@
         <v>612768</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>581995</v>
+        <v>578747</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>643385</v>
+        <v>643215</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6303078583135657</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5986535137287878</v>
+        <v>0.5953132609571802</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6618006065131785</v>
+        <v>0.6616258051845502</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1335</v>
@@ -3679,19 +3679,19 @@
         <v>1441545</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1387573</v>
+        <v>1394599</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1489618</v>
+        <v>1487156</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6220667683782116</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5987765476307912</v>
+        <v>0.601808361939964</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6428117144748895</v>
+        <v>0.6417494306264605</v>
       </c>
     </row>
     <row r="22">
@@ -3708,19 +3708,19 @@
         <v>283349</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>254259</v>
+        <v>256390</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>314794</v>
+        <v>319782</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2106409730006246</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1890158967299852</v>
+        <v>0.1905995721570521</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2340175902089965</v>
+        <v>0.2377254238437622</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>185</v>
@@ -3729,19 +3729,19 @@
         <v>201502</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>176622</v>
+        <v>176371</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>228653</v>
+        <v>231613</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2072696565201753</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1816773522516782</v>
+        <v>0.1814189990627535</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2351983228053117</v>
+        <v>0.2382425927136789</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>455</v>
@@ -3750,19 +3750,19 @@
         <v>484851</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>447076</v>
+        <v>444099</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>528793</v>
+        <v>524393</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2092266392563709</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1929257416166397</v>
+        <v>0.1916409598366429</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2281889081823104</v>
+        <v>0.2262904371078444</v>
       </c>
     </row>
     <row r="23">
@@ -4093,19 +4093,19 @@
         <v>8692</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3835</v>
+        <v>3971</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15602</v>
+        <v>15898</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0390343001993684</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01721990542657137</v>
+        <v>0.01783267047920318</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07006331761616801</v>
+        <v>0.07139014719866849</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4114,19 +4114,19 @@
         <v>2921</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7774</v>
+        <v>7105</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02196292994327733</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006613916747673162</v>
+        <v>0.006533682996955742</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05845810908298847</v>
+        <v>0.05342983525986824</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -4135,19 +4135,19 @@
         <v>11613</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5879</v>
+        <v>5860</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20082</v>
+        <v>18940</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03265154930823394</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01652928967075167</v>
+        <v>0.01647570445381209</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05646382681639327</v>
+        <v>0.05325372815182101</v>
       </c>
     </row>
     <row r="5">
@@ -4164,19 +4164,19 @@
         <v>26483</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18479</v>
+        <v>18314</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38084</v>
+        <v>36774</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1189260709864066</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08298088980246544</v>
+        <v>0.08224333620878191</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1710204539381797</v>
+        <v>0.1651376725153766</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -4185,19 +4185,19 @@
         <v>19994</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12161</v>
+        <v>12954</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29062</v>
+        <v>30368</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1503601606338397</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09145364819711822</v>
+        <v>0.09741315195179816</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2185505243247306</v>
+        <v>0.2283711255371342</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>46</v>
@@ -4206,19 +4206,19 @@
         <v>46478</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>34141</v>
+        <v>35275</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>60269</v>
+        <v>60657</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.130678845409278</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09599263177230372</v>
+        <v>0.09917957015891661</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1694540236307124</v>
+        <v>0.1705467371650689</v>
       </c>
     </row>
     <row r="6">
@@ -4235,19 +4235,19 @@
         <v>122724</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>107089</v>
+        <v>108611</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>137288</v>
+        <v>137045</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5511124611391079</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4808978206934506</v>
+        <v>0.4877345483154344</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6165137157825411</v>
+        <v>0.6154203628871274</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>73</v>
@@ -4256,19 +4256,19 @@
         <v>74514</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>62135</v>
+        <v>63005</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>85629</v>
+        <v>85212</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5603549270879046</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4672616914695881</v>
+        <v>0.4738015316021627</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6439418831744592</v>
+        <v>0.640803503145757</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>189</v>
@@ -4277,19 +4277,19 @@
         <v>197239</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>177865</v>
+        <v>178890</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>216379</v>
+        <v>217502</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5545680922270643</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.500094860259592</v>
+        <v>0.5029773739370288</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6083832532354109</v>
+        <v>0.6115409093860723</v>
       </c>
     </row>
     <row r="7">
@@ -4306,19 +4306,19 @@
         <v>64785</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51979</v>
+        <v>51442</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>79684</v>
+        <v>79112</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2909271676751171</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2334173304768428</v>
+        <v>0.2310091151207056</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3578315352109175</v>
+        <v>0.3552641228142311</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -4327,19 +4327,19 @@
         <v>35548</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25913</v>
+        <v>25214</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46002</v>
+        <v>45857</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2673219823349784</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1948685075703357</v>
+        <v>0.1896098092506077</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3459425752124261</v>
+        <v>0.3448527845788981</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>96</v>
@@ -4348,19 +4348,19 @@
         <v>100333</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83606</v>
+        <v>84623</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>117792</v>
+        <v>118603</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2821015130554238</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2350710026737848</v>
+        <v>0.237930372361352</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3311910270703265</v>
+        <v>0.333468807737043</v>
       </c>
     </row>
     <row r="8">
@@ -4452,19 +4452,19 @@
         <v>19844</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11637</v>
+        <v>11745</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29329</v>
+        <v>29222</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02500808544548347</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01466523760663864</v>
+        <v>0.01480158859583336</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03696191033729342</v>
+        <v>0.03682714878970605</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>17</v>
@@ -4473,19 +4473,19 @@
         <v>17047</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9582</v>
+        <v>10629</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>27601</v>
+        <v>26479</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02598994103921513</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01460795632365343</v>
+        <v>0.01620500335759499</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04207963503167158</v>
+        <v>0.04036920265692447</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>36</v>
@@ -4494,19 +4494,19 @@
         <v>36891</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>26417</v>
+        <v>24993</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>50441</v>
+        <v>50199</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.025452417579537</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01822592255819547</v>
+        <v>0.01724352154789164</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03480149776829501</v>
+        <v>0.0346345063820505</v>
       </c>
     </row>
     <row r="10">
@@ -4523,19 +4523,19 @@
         <v>165557</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>140547</v>
+        <v>144869</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>189736</v>
+        <v>191231</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2086446917286525</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1771254867724723</v>
+        <v>0.1825720424564339</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2391164011350342</v>
+        <v>0.2410008699144678</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>138</v>
@@ -4544,19 +4544,19 @@
         <v>142841</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>120927</v>
+        <v>122172</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>164344</v>
+        <v>165789</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2177726339924227</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1843632563331144</v>
+        <v>0.1862613229752744</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2505553797232802</v>
+        <v>0.2527581878231903</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>289</v>
@@ -4565,19 +4565,19 @@
         <v>308398</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>276804</v>
+        <v>277570</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>342335</v>
+        <v>338572</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2127754805039792</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1909772438914414</v>
+        <v>0.1915059664606767</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2361897027193814</v>
+        <v>0.2335932859780063</v>
       </c>
     </row>
     <row r="11">
@@ -4594,19 +4594,19 @@
         <v>445792</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>416890</v>
+        <v>415069</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>473721</v>
+        <v>474885</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5618134821154632</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5253897069990431</v>
+        <v>0.5230946318694117</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.597012234775143</v>
+        <v>0.5984786722446174</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>359</v>
@@ -4615,19 +4615,19 @@
         <v>369821</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>342343</v>
+        <v>342071</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>395388</v>
+        <v>395379</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5638216343967711</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5219288097598118</v>
+        <v>0.5215144158024929</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6028000368168609</v>
+        <v>0.6027864722978875</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>774</v>
@@ -4636,19 +4636,19 @@
         <v>815613</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>777382</v>
+        <v>775711</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>851759</v>
+        <v>852399</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5627222579011841</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5363454659997747</v>
+        <v>0.5351922458487204</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5876606050201011</v>
+        <v>0.5881020870009152</v>
       </c>
     </row>
     <row r="12">
@@ -4665,19 +4665,19 @@
         <v>162295</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>140641</v>
+        <v>138971</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>186081</v>
+        <v>186991</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2045337407104008</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1772448393646877</v>
+        <v>0.1751402299068316</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2345102372693615</v>
+        <v>0.2356569654714832</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>121</v>
@@ -4686,19 +4686,19 @@
         <v>126209</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>104558</v>
+        <v>105660</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>147064</v>
+        <v>145767</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1924157905715911</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1594072452070929</v>
+        <v>0.16108657599603</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2242112098697154</v>
+        <v>0.2222333686264927</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>272</v>
@@ -4707,19 +4707,19 @@
         <v>288504</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>258202</v>
+        <v>257457</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>321394</v>
+        <v>321823</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1990498440152997</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1781434973243021</v>
+        <v>0.1776289869641652</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.221742127569689</v>
+        <v>0.2220375517800688</v>
       </c>
     </row>
     <row r="13">
@@ -4811,19 +4811,19 @@
         <v>4381</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1287</v>
+        <v>1041</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10925</v>
+        <v>10945</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03217697503545322</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009448875361382489</v>
+        <v>0.007644533175736874</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08024006205637386</v>
+        <v>0.08038610651823674</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -4832,19 +4832,19 @@
         <v>2932</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8247</v>
+        <v>8034</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02434010053233555</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00755845886720774</v>
+        <v>0.007612073771537432</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06846690248271668</v>
+        <v>0.06669991630528323</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -4853,19 +4853,19 @@
         <v>7313</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3370</v>
+        <v>2997</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14066</v>
+        <v>14422</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0284983161407671</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01313236537492136</v>
+        <v>0.01167861330325267</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05481388064200723</v>
+        <v>0.05620197024812873</v>
       </c>
     </row>
     <row r="15">
@@ -4882,19 +4882,19 @@
         <v>36257</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>26028</v>
+        <v>26635</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>48804</v>
+        <v>48176</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2662966429242825</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1911687256745193</v>
+        <v>0.195623056783445</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3584506460315257</v>
+        <v>0.3538371569235144</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>18</v>
@@ -4903,19 +4903,19 @@
         <v>18273</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>10956</v>
+        <v>11498</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>26915</v>
+        <v>27546</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1517048863437253</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09095484432142105</v>
+        <v>0.09545931768726747</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2234466567639796</v>
+        <v>0.2286858928970708</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>49</v>
@@ -4924,19 +4924,19 @@
         <v>54531</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>42151</v>
+        <v>41579</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>69763</v>
+        <v>67814</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2125068336788908</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1642623236145839</v>
+        <v>0.1620361605563836</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2718678874860023</v>
+        <v>0.2642734883724963</v>
       </c>
     </row>
     <row r="16">
@@ -4953,19 +4953,19 @@
         <v>73919</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61779</v>
+        <v>61523</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>85838</v>
+        <v>85870</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5429044557897613</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4537428497913376</v>
+        <v>0.4518653954356223</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6304505369649203</v>
+        <v>0.6306861841680412</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -4974,19 +4974,19 @@
         <v>75379</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>65338</v>
+        <v>64081</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>86262</v>
+        <v>85330</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6257989675167073</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5424427579569193</v>
+        <v>0.5320006617744047</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7161534255416454</v>
+        <v>0.7084164631584825</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>140</v>
@@ -4995,19 +4995,19 @@
         <v>149297</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>132833</v>
+        <v>132640</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>165787</v>
+        <v>164571</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.581815456950196</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5176552734786395</v>
+        <v>0.516901323794131</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.646074974567597</v>
+        <v>0.6413369499541287</v>
       </c>
     </row>
     <row r="17">
@@ -5024,19 +5024,19 @@
         <v>21597</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13807</v>
+        <v>13667</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32281</v>
+        <v>31222</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.158621926250503</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.101408642641247</v>
+        <v>0.1003778219448479</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2370941872054578</v>
+        <v>0.2293118337921726</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -5045,19 +5045,19 @@
         <v>23868</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16062</v>
+        <v>16225</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34088</v>
+        <v>34857</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1981560456072319</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1333518673299487</v>
+        <v>0.13470165783836</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2829994820456568</v>
+        <v>0.2893820167848736</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -5066,19 +5066,19 @@
         <v>45465</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>33904</v>
+        <v>34019</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>59217</v>
+        <v>59148</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1771793932301461</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1321265187567142</v>
+        <v>0.1325721705522899</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.230769072250271</v>
+        <v>0.2305019438765614</v>
       </c>
     </row>
     <row r="18">
@@ -5170,19 +5170,19 @@
         <v>32917</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21782</v>
+        <v>22995</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45370</v>
+        <v>45338</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02856567672273537</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01890281554118329</v>
+        <v>0.01995524530766212</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03937282648329385</v>
+        <v>0.03934465958832202</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -5191,19 +5191,19 @@
         <v>22900</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14667</v>
+        <v>15117</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33750</v>
+        <v>33023</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02518251879814958</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01612935876444418</v>
+        <v>0.01662442859360123</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03711396227427163</v>
+        <v>0.03631480099945116</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>55</v>
@@ -5212,19 +5212,19 @@
         <v>55817</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43040</v>
+        <v>42982</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71189</v>
+        <v>72872</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02707345859976174</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02087645434608792</v>
+        <v>0.02084801714005644</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03452949423339271</v>
+        <v>0.03534597644313142</v>
       </c>
     </row>
     <row r="20">
@@ -5241,19 +5241,19 @@
         <v>228297</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>198255</v>
+        <v>200669</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>256113</v>
+        <v>256815</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1981186074546384</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1720478036372409</v>
+        <v>0.1741427078257952</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.222257001242428</v>
+        <v>0.2228663852171592</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>176</v>
@@ -5262,19 +5262,19 @@
         <v>181109</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>159215</v>
+        <v>159285</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>205171</v>
+        <v>206849</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1991633540253172</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1750868919376204</v>
+        <v>0.1751638927291335</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2256241331697255</v>
+        <v>0.2274692793754795</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>384</v>
@@ -5283,19 +5283,19 @@
         <v>409406</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>374553</v>
+        <v>373918</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>443776</v>
+        <v>449715</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1985794164979739</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1816742324780515</v>
+        <v>0.1813659907292018</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2152502658387022</v>
+        <v>0.2181308411124451</v>
       </c>
     </row>
     <row r="21">
@@ -5312,19 +5312,19 @@
         <v>642435</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>606617</v>
+        <v>608480</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>677093</v>
+        <v>676307</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5575113150580445</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5264280847241998</v>
+        <v>0.5280453407319571</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5875882215231992</v>
+        <v>0.586905856194987</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>506</v>
@@ -5333,19 +5333,19 @@
         <v>519714</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>489789</v>
+        <v>489855</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>548029</v>
+        <v>548615</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5715241645953353</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5386154411211952</v>
+        <v>0.5386886605736847</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6026614361255251</v>
+        <v>0.6033053652283267</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1103</v>
@@ -5354,19 +5354,19 @@
         <v>1162149</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1114413</v>
+        <v>1117434</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1206079</v>
+        <v>1211089</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.563691998460995</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5405379701678314</v>
+        <v>0.5420034539554522</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5849997396539119</v>
+        <v>0.5874299210481858</v>
       </c>
     </row>
     <row r="22">
@@ -5383,19 +5383,19 @@
         <v>248677</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>222546</v>
+        <v>218288</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>275932</v>
+        <v>276088</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2158044007645817</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1931278535475467</v>
+        <v>0.1894326422827387</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2394561563296704</v>
+        <v>0.2395918195489905</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>176</v>
@@ -5404,19 +5404,19 @@
         <v>185625</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>160911</v>
+        <v>160993</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>210874</v>
+        <v>211952</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2041299625811979</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1769523343662253</v>
+        <v>0.1770423205541449</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.231895762485347</v>
+        <v>0.2330813776848201</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>410</v>
@@ -5425,19 +5425,19 @@
         <v>434302</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>396438</v>
+        <v>396350</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>470718</v>
+        <v>473022</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2106551264412693</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1922892924594498</v>
+        <v>0.1922467688981891</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2283185301038511</v>
+        <v>0.2294358591746738</v>
       </c>
     </row>
     <row r="23">
